--- a/Planilha_6 cat_FINAL_09.06.xlsx
+++ b/Planilha_6 cat_FINAL_09.06.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SPE\Shiny_Covid_UF\Covid_UF\02_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ALEX\IMB\2021\BI_COVID_IPEA_UFG_IMB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>UF</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t>Uso de máscaras sob certas circuntâncias</t>
+  </si>
+  <si>
+    <t>Uso de máscaras em todos os lugares</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -299,13 +308,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -358,6 +375,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,7 +685,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,628 +698,797 @@
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="I1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C2" s="5">
         <v>43908</v>
       </c>
-      <c r="D2" s="6">
-        <v>43910</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6">
-        <v>43910</v>
-      </c>
-      <c r="H2" s="7"/>
+      <c r="D2" s="5">
+        <v>43910</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43910</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5">
+        <v>43910</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="1">
+        <v>43941</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44015</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>43903</v>
       </c>
-      <c r="C3" s="6">
-        <v>43913</v>
-      </c>
-      <c r="D3" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="5">
+        <v>43913</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E3" s="1">
         <v>43911</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="1">
+        <v>43941</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43956</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
-        <v>43910</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="5">
+        <v>43910</v>
+      </c>
+      <c r="C4" s="5">
         <v>43908</v>
       </c>
-      <c r="D4" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3">
-        <v>43913</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="D4" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43910</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H4" s="4">
         <v>43924</v>
       </c>
+      <c r="I4" s="1">
+        <v>43964</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44015</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C5" s="5">
         <v>43909</v>
       </c>
-      <c r="D5" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5">
-        <v>43913</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="D5" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G5" s="4">
         <v>43909</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="1">
+        <v>43924</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44015</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>43909</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43909</v>
       </c>
-      <c r="D6" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6">
+      <c r="D6" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5">
         <v>43918</v>
       </c>
-      <c r="G6" s="6">
-        <v>43910</v>
-      </c>
-      <c r="H6" s="7"/>
+      <c r="G6" s="5">
+        <v>43910</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="1">
+        <v>43938</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43959</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C7" s="5">
         <v>43909</v>
       </c>
-      <c r="D7" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E7" s="19">
-        <v>43910</v>
-      </c>
-      <c r="G7" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="D7" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E7" s="18">
+        <v>43910</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1">
+        <v>43940</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43981</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>43901</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43901</v>
       </c>
-      <c r="D8" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3">
-        <v>43913</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="D8" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2">
+        <v>43913</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1">
+        <v>43947</v>
+      </c>
+      <c r="J8" s="1">
+        <v>43951</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43913</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43913</v>
+      </c>
+      <c r="D9" s="5">
         <v>43908</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="2">
-        <v>43913</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16">
+      <c r="E9" s="7"/>
+      <c r="F9" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
         <v>43976</v>
       </c>
+      <c r="I9" s="1">
+        <v>43941</v>
+      </c>
+      <c r="J9" s="1">
+        <v>43976</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>43903</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43908</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>43904</v>
       </c>
-      <c r="E10" s="6">
-        <v>43910</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
-        <v>43910</v>
-      </c>
-      <c r="H10" s="17"/>
+      <c r="E10" s="5">
+        <v>43910</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>43910</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1">
+        <v>43940</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C11" s="6">
-        <v>43907</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C11" s="5">
+        <v>43907</v>
+      </c>
+      <c r="D11" s="5">
         <v>43912</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>43911</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6">
+      <c r="F11" s="1"/>
+      <c r="G11" s="5">
         <v>43911</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>43971</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="I11" s="1">
+        <v>43932</v>
+      </c>
+      <c r="J11" s="1">
+        <v>43941</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C12" s="6">
-        <v>43913</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C12" s="5">
+        <v>43913</v>
+      </c>
+      <c r="D12" s="5">
         <v>43908</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="2">
-        <v>43913</v>
-      </c>
-      <c r="G12" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="1">
+        <v>43939</v>
+      </c>
+      <c r="J12" s="1">
+        <v>44015</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6">
-        <v>43910</v>
-      </c>
-      <c r="C13" s="6">
-        <v>43913</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43910</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="2">
+      <c r="B13" s="5">
+        <v>43910</v>
+      </c>
+      <c r="C13" s="5">
+        <v>43913</v>
+      </c>
+      <c r="D13" s="5">
+        <v>43910</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="1">
         <v>43911</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="1">
+        <v>43948</v>
+      </c>
+      <c r="J13" s="1">
+        <v>44004</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>43909</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43908</v>
       </c>
-      <c r="D14" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5">
+      <c r="D14" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4">
         <v>43912</v>
       </c>
-      <c r="G14" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="G14" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="1">
+        <v>43934</v>
+      </c>
+      <c r="J14" s="1">
+        <v>43943</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C15" s="6">
-        <v>43906</v>
-      </c>
-      <c r="D15" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6">
+      <c r="B15" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43906</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5">
         <v>43956</v>
       </c>
-      <c r="G15" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H15" s="7"/>
+      <c r="G15" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="1">
+        <v>43937</v>
+      </c>
+      <c r="J15" s="1">
+        <v>43964</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C16" s="5">
         <v>43909</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>43909</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6">
+      <c r="E16" s="7"/>
+      <c r="F16" s="5">
         <v>43912</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>43971</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="1">
+        <v>43938</v>
+      </c>
+      <c r="J16" s="1">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C17" s="6">
-        <v>43910</v>
-      </c>
-      <c r="D17" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="2">
+      <c r="B17" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C17" s="5">
+        <v>43910</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="1">
         <v>43911</v>
       </c>
-      <c r="G17" s="6">
-        <v>43910</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="G17" s="5">
+        <v>43910</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="1">
+        <v>43948</v>
+      </c>
+      <c r="J17" s="1">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>43904</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43908</v>
       </c>
-      <c r="D18" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="3">
+      <c r="D18" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2">
         <v>43912</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>43912</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C19" s="6">
-        <v>43906</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="B19" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C19" s="5">
+        <v>43906</v>
+      </c>
+      <c r="D19" s="5">
         <v>43908</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2">
-        <v>43913</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="E19" s="7"/>
+      <c r="F19" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G19" s="2">
         <v>43927</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="1">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>43903</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43903</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>43903</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2">
-        <v>43907</v>
-      </c>
-      <c r="G20" s="6">
-        <v>43907</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="1">
+        <v>43907</v>
+      </c>
+      <c r="G20" s="5">
+        <v>43907</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="1">
+        <v>43956</v>
+      </c>
+      <c r="J20" s="1">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>43908</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43908</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>43904</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5">
+      <c r="E21" s="7"/>
+      <c r="F21" s="4">
         <v>43923</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5">
+      <c r="G21" s="6"/>
+      <c r="H21" s="4">
         <v>43923</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="I21" s="1">
+        <v>43922</v>
+      </c>
+      <c r="J21" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>43909</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43909</v>
       </c>
-      <c r="D22" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="D22" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E22" s="18">
         <v>43909</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>43909</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>43922</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="I22" s="1">
+        <v>43926</v>
+      </c>
+      <c r="J22" s="1">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C23" s="6">
-        <v>43907</v>
-      </c>
-      <c r="D23" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="2">
-        <v>43910</v>
-      </c>
-      <c r="G23" s="6">
-        <v>43910</v>
-      </c>
-      <c r="H23" s="2">
-        <v>43910</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="B23" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43907</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="1">
+        <v>43910</v>
+      </c>
+      <c r="G23" s="5">
+        <v>43910</v>
+      </c>
+      <c r="H23" s="1">
+        <v>43910</v>
+      </c>
+      <c r="I23" s="1">
+        <v>43922</v>
+      </c>
+      <c r="J23" s="1">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C24" s="6">
-        <v>43907</v>
-      </c>
-      <c r="D24" s="6">
-        <v>43913</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="2">
-        <v>43913</v>
-      </c>
-      <c r="G24" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="B24" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C24" s="5">
+        <v>43907</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43913</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G24" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="1">
+        <v>43951</v>
+      </c>
+      <c r="J24" s="1">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C25" s="5">
         <v>43909</v>
       </c>
-      <c r="D25" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="2">
+      <c r="D25" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="1">
         <v>43908</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>43908</v>
       </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="1">
+        <v>43929</v>
+      </c>
+      <c r="J25" s="1">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>43903</v>
       </c>
-      <c r="C26" s="6">
-        <v>43913</v>
-      </c>
-      <c r="D26" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3">
+      <c r="C26" s="5">
+        <v>43913</v>
+      </c>
+      <c r="D26" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="2">
         <v>43914</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="2">
+      <c r="G26" s="6"/>
+      <c r="H26" s="1">
         <v>43914</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="I26" s="1">
+        <v>43910</v>
+      </c>
+      <c r="J26" s="1">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C27" s="6">
-        <v>43907</v>
-      </c>
-      <c r="D27" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5">
-        <v>43910</v>
-      </c>
-      <c r="G27" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="B27" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C27" s="5">
+        <v>43907</v>
+      </c>
+      <c r="D27" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4">
+        <v>43910</v>
+      </c>
+      <c r="G27" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="1">
+        <v>43955</v>
+      </c>
+      <c r="J27" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>43911</v>
       </c>
-      <c r="C28" s="6">
-        <v>43906</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="5">
+        <v>43906</v>
+      </c>
+      <c r="D28" s="5">
         <v>43911</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="2">
+      <c r="E28" s="7"/>
+      <c r="F28" s="1">
         <v>43911</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="1">
+        <v>43956</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Planilha_6 cat_FINAL_09.06.xlsx
+++ b/Planilha_6 cat_FINAL_09.06.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SPE\Shiny_Covid_UF\Covid_UF\02_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ALEX\IMB\2021\BI_COVID_IPEA_UFG_IMB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>UF</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t>Uso de máscaras sob certas circuntâncias</t>
+  </si>
+  <si>
+    <t>Uso de máscaras em todos os lugares</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -299,13 +305,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -335,12 +349,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,6 +366,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,7 +679,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,628 +692,789 @@
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="I1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C2" s="5">
         <v>43908</v>
       </c>
-      <c r="D2" s="6">
-        <v>43910</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6">
-        <v>43910</v>
-      </c>
-      <c r="H2" s="7"/>
+      <c r="D2" s="5">
+        <v>43910</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43910</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5">
+        <v>43910</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5">
+        <v>43941</v>
+      </c>
+      <c r="J2" s="5">
+        <v>44015</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>43903</v>
       </c>
-      <c r="C3" s="6">
-        <v>43913</v>
-      </c>
-      <c r="D3" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="5">
+        <v>43913</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E3" s="1">
         <v>43911</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5">
+        <v>43941</v>
+      </c>
+      <c r="J3" s="5">
+        <v>43956</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
-        <v>43910</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="5">
+        <v>43910</v>
+      </c>
+      <c r="C4" s="5">
         <v>43908</v>
       </c>
-      <c r="D4" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3">
-        <v>43913</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="D4" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43910</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H4" s="4">
         <v>43924</v>
       </c>
+      <c r="I4" s="5">
+        <v>43964</v>
+      </c>
+      <c r="J4" s="5">
+        <v>44015</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C5" s="5">
         <v>43909</v>
       </c>
-      <c r="D5" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5">
-        <v>43913</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="D5" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4">
+        <v>43913</v>
+      </c>
+      <c r="G5" s="4">
         <v>43909</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5">
+        <v>43924</v>
+      </c>
+      <c r="J5" s="5">
+        <v>44015</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>43909</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43909</v>
       </c>
-      <c r="D6" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6">
+      <c r="D6" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5">
         <v>43918</v>
       </c>
-      <c r="G6" s="6">
-        <v>43910</v>
-      </c>
-      <c r="H6" s="7"/>
+      <c r="G6" s="5">
+        <v>43910</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5">
+        <v>43938</v>
+      </c>
+      <c r="J6" s="5">
+        <v>43959</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C7" s="5">
         <v>43909</v>
       </c>
-      <c r="D7" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E7" s="19">
-        <v>43910</v>
-      </c>
-      <c r="G7" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="D7" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E7" s="16">
+        <v>43910</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5">
+        <v>43940</v>
+      </c>
+      <c r="J7" s="5">
+        <v>43981</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>43901</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43901</v>
       </c>
-      <c r="D8" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3">
-        <v>43913</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="D8" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2">
+        <v>43913</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5">
+        <v>43947</v>
+      </c>
+      <c r="J8" s="5">
+        <v>43951</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43913</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43913</v>
+      </c>
+      <c r="D9" s="5">
         <v>43908</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="2">
-        <v>43913</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16">
+      <c r="E9" s="7"/>
+      <c r="F9" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
         <v>43976</v>
       </c>
+      <c r="I9" s="5">
+        <v>43941</v>
+      </c>
+      <c r="J9" s="5">
+        <v>43976</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>43903</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43908</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>43904</v>
       </c>
-      <c r="E10" s="6">
-        <v>43910</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
-        <v>43910</v>
-      </c>
-      <c r="H10" s="17"/>
+      <c r="E10" s="5">
+        <v>43910</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>43910</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>43940</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C11" s="6">
-        <v>43907</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C11" s="5">
+        <v>43907</v>
+      </c>
+      <c r="D11" s="5">
         <v>43912</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>43911</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6">
+      <c r="F11" s="1"/>
+      <c r="G11" s="5">
         <v>43911</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="13">
         <v>43971</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="I11" s="5">
+        <v>43932</v>
+      </c>
+      <c r="J11" s="5">
+        <v>43941</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C12" s="6">
-        <v>43913</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C12" s="5">
+        <v>43913</v>
+      </c>
+      <c r="D12" s="5">
         <v>43908</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="2">
-        <v>43913</v>
-      </c>
-      <c r="G12" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5">
+        <v>43939</v>
+      </c>
+      <c r="J12" s="5">
+        <v>44015</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6">
-        <v>43910</v>
-      </c>
-      <c r="C13" s="6">
-        <v>43913</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43910</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="2">
+      <c r="B13" s="5">
+        <v>43910</v>
+      </c>
+      <c r="C13" s="5">
+        <v>43913</v>
+      </c>
+      <c r="D13" s="5">
+        <v>43910</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="1">
         <v>43911</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5">
+        <v>43948</v>
+      </c>
+      <c r="J13" s="5">
+        <v>44004</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>43909</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43908</v>
       </c>
-      <c r="D14" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5">
+      <c r="D14" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4">
         <v>43912</v>
       </c>
-      <c r="G14" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="G14" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5">
+        <v>43934</v>
+      </c>
+      <c r="J14" s="5">
+        <v>43943</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C15" s="6">
-        <v>43906</v>
-      </c>
-      <c r="D15" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6">
+      <c r="B15" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43906</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5">
         <v>43956</v>
       </c>
-      <c r="G15" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H15" s="7"/>
+      <c r="G15" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5">
+        <v>43937</v>
+      </c>
+      <c r="J15" s="5">
+        <v>43964</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C16" s="5">
         <v>43909</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>43909</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6">
+      <c r="E16" s="7"/>
+      <c r="F16" s="5">
         <v>43912</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="13">
         <v>43971</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="5">
+        <v>43938</v>
+      </c>
+      <c r="J16" s="5">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C17" s="6">
-        <v>43910</v>
-      </c>
-      <c r="D17" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="2">
+      <c r="B17" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C17" s="5">
+        <v>43910</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="1">
         <v>43911</v>
       </c>
-      <c r="G17" s="6">
-        <v>43910</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="G17" s="5">
+        <v>43910</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5">
+        <v>43948</v>
+      </c>
+      <c r="J17" s="5">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>43904</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43908</v>
       </c>
-      <c r="D18" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="3">
+      <c r="D18" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2">
         <v>43912</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>43912</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C19" s="6">
-        <v>43906</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="B19" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C19" s="5">
+        <v>43906</v>
+      </c>
+      <c r="D19" s="5">
         <v>43908</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2">
-        <v>43913</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="E19" s="7"/>
+      <c r="F19" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G19" s="2">
         <v>43927</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>43903</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43903</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>43903</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2">
-        <v>43907</v>
-      </c>
-      <c r="G20" s="6">
-        <v>43907</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="1">
+        <v>43907</v>
+      </c>
+      <c r="G20" s="5">
+        <v>43907</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5">
+        <v>43956</v>
+      </c>
+      <c r="J20" s="5">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>43908</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>43908</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>43904</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5">
+      <c r="E21" s="7"/>
+      <c r="F21" s="4">
         <v>43923</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5">
+      <c r="G21" s="6"/>
+      <c r="H21" s="4">
         <v>43923</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="I21" s="5">
+        <v>43922</v>
+      </c>
+      <c r="J21" s="5">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>43909</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>43909</v>
       </c>
-      <c r="D22" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="D22" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E22" s="16">
         <v>43909</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>43909</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>43922</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="I22" s="5">
+        <v>43926</v>
+      </c>
+      <c r="J22" s="5">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C23" s="6">
-        <v>43907</v>
-      </c>
-      <c r="D23" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="2">
-        <v>43910</v>
-      </c>
-      <c r="G23" s="6">
-        <v>43910</v>
-      </c>
-      <c r="H23" s="2">
-        <v>43910</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="B23" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43907</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="1">
+        <v>43910</v>
+      </c>
+      <c r="G23" s="5">
+        <v>43910</v>
+      </c>
+      <c r="H23" s="1">
+        <v>43910</v>
+      </c>
+      <c r="I23" s="5">
+        <v>43922</v>
+      </c>
+      <c r="J23" s="5">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
-        <v>43906</v>
-      </c>
-      <c r="C24" s="6">
-        <v>43907</v>
-      </c>
-      <c r="D24" s="6">
-        <v>43913</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="2">
-        <v>43913</v>
-      </c>
-      <c r="G24" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="B24" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C24" s="5">
+        <v>43907</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43913</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G24" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5">
+        <v>43951</v>
+      </c>
+      <c r="J24" s="5">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C25" s="5">
         <v>43909</v>
       </c>
-      <c r="D25" s="6">
-        <v>43906</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="2">
+      <c r="D25" s="5">
+        <v>43906</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="1">
         <v>43908</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>43908</v>
       </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="5">
+        <v>43929</v>
+      </c>
+      <c r="J25" s="5">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>43903</v>
       </c>
-      <c r="C26" s="6">
-        <v>43913</v>
-      </c>
-      <c r="D26" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3">
+      <c r="C26" s="5">
+        <v>43913</v>
+      </c>
+      <c r="D26" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="2">
         <v>43914</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="2">
+      <c r="G26" s="6"/>
+      <c r="H26" s="1">
         <v>43914</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="I26" s="5">
+        <v>43910</v>
+      </c>
+      <c r="J26" s="5">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6">
-        <v>43907</v>
-      </c>
-      <c r="C27" s="6">
-        <v>43907</v>
-      </c>
-      <c r="D27" s="6">
-        <v>43907</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5">
-        <v>43910</v>
-      </c>
-      <c r="G27" s="6">
-        <v>43913</v>
-      </c>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="B27" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C27" s="5">
+        <v>43907</v>
+      </c>
+      <c r="D27" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4">
+        <v>43910</v>
+      </c>
+      <c r="G27" s="5">
+        <v>43913</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="5">
+        <v>43955</v>
+      </c>
+      <c r="J27" s="5">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>43911</v>
       </c>
-      <c r="C28" s="6">
-        <v>43906</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="5">
+        <v>43906</v>
+      </c>
+      <c r="D28" s="5">
         <v>43911</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="2">
+      <c r="E28" s="7"/>
+      <c r="F28" s="1">
         <v>43911</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5">
+        <v>43956</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
